--- a/SFX/SFX Chart.xlsx
+++ b/SFX/SFX Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Projects\GameOff\Game-Off-2020-Project\SFX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2B20F52-5F3D-4167-9DE1-A7C7DE7F2442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DD9D1F-EC32-43BA-9F05-BB3EE706BBCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{1672100A-E3E0-46EB-BBF9-30BBED4D7E07}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>Player Shoot Machine Gun</t>
   </si>
@@ -185,9 +185,6 @@
     <t xml:space="preserve">WINDUP (x1) -&gt; SHOT </t>
   </si>
   <si>
-    <t>To be replaced</t>
-  </si>
-  <si>
     <t>Replaced with V2</t>
   </si>
   <si>
@@ -195,6 +192,39 @@
   </si>
   <si>
     <t>x3 Alt Versions for round robin</t>
+  </si>
+  <si>
+    <t>Replaced By V2</t>
+  </si>
+  <si>
+    <t>Provisional</t>
+  </si>
+  <si>
+    <t>Need to know fire rate/how long the shot can last</t>
+  </si>
+  <si>
+    <t>Focused on Player or Locational?</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Locational</t>
+  </si>
+  <si>
+    <t>Player?</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>UI Hover</t>
+  </si>
+  <si>
+    <t>(If you need it)</t>
+  </si>
+  <si>
+    <t>x3 Versions</t>
   </si>
 </sst>
 </file>
@@ -263,7 +293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,15 +323,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -618,17 +650,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A37F105-505B-42AE-9F44-BDB021F0E564}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.453125" customWidth="1"/>
     <col min="2" max="2" width="67.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="3" max="3" width="58.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.6">
@@ -638,7 +670,9 @@
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -652,51 +686,69 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -704,260 +756,406 @@
         <v>6</v>
       </c>
       <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3"/>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="B28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
